--- a/fg/external_files/the_open_picks.xlsx
+++ b/fg/external_files/the_open_picks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexevans/Library/Containers/com.microsoft.Excel/Data/Desktop/Projects/fgolf/fg/external_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexevans/Desktop/Projects/fgolf/fg/external_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C5A53-D8B1-D642-9387-925FB78E59F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009A227-8B1A-8E49-9B73-82651FC9C56E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="980" windowWidth="20280" windowHeight="15920" xr2:uid="{45295F2B-EB9E-3348-9AE2-9104864DF200}"/>
+    <workbookView xWindow="8520" yWindow="960" windowWidth="20280" windowHeight="15920" xr2:uid="{45295F2B-EB9E-3348-9AE2-9104864DF200}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">Adam Hadwin </t>
   </si>
   <si>
-    <t>Erik Van Rooyen</t>
-  </si>
-  <si>
     <t>Tony Finau</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Sam Locke</t>
   </si>
   <si>
-    <t>Rafa Cabrera Bello</t>
-  </si>
-  <si>
     <t>Aaron Wise</t>
   </si>
   <si>
@@ -96,15 +90,9 @@
     <t>Graeme McDowell</t>
   </si>
   <si>
-    <t>Alex Noren</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hideki Matsuyama </t>
   </si>
   <si>
-    <t>Romain Languesque</t>
-  </si>
-  <si>
     <t>John Griffin</t>
   </si>
   <si>
@@ -190,6 +178,18 @@
   </si>
   <si>
     <t>Thorbjorn Olesen</t>
+  </si>
+  <si>
+    <t>Erik van Rooyen</t>
+  </si>
+  <si>
+    <t>Rafael Cabrera Bello</t>
+  </si>
+  <si>
+    <t>Alexander Noren</t>
+  </si>
+  <si>
+    <t>Romain Langasque</t>
   </si>
 </sst>
 </file>
@@ -544,14 +544,21 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -568,7 +575,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -580,12 +587,12 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -597,29 +604,29 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -631,12 +638,12 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -648,12 +655,12 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -662,163 +669,163 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
